--- a/project/uploads/Customer.xlsx
+++ b/project/uploads/Customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victoria\victoria\project\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1220F4-31FF-4AB9-80C5-976E5A790190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962E172B-4BB0-4EC3-B4B0-E90C6A5B7FC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12471,10 +12471,19 @@
   <dimension ref="A1:G1703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1703"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
